--- a/fe_client/Assets/GameData/sheet_unit.xlsx
+++ b/fe_client/Assets/GameData/sheet_unit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>KIND</t>
   </si>
@@ -96,40 +96,52 @@
     <t>Category:  EnumWeapon:          Sword = 1, Axe = 2, Spear = 3, MartailArts = 4, Bow = 5, Wand = 6, Grimoire = 7, Dagger = 8</t>
   </si>
   <si>
+    <t>Infantry;Male</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Cavalry;Male</t>
+  </si>
+  <si>
+    <t>Infantry;Female</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Sword;Spear</t>
+  </si>
+  <si>
+    <t>Infantry;HeavyArmor;Male</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>적군유닛_산적</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>적군유닛_도둑</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>적군유닛_불량배</t>
+  </si>
+  <si>
+    <t>적군유닛_해적</t>
+  </si>
+  <si>
     <t>Infantry</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Cavalry</t>
-  </si>
-  <si>
-    <t>Wand</t>
-  </si>
-  <si>
-    <t>Sword;Spear</t>
-  </si>
-  <si>
-    <t>Infantry;HeavyArmor</t>
-  </si>
-  <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>적군유닛_산적</t>
-  </si>
-  <si>
-    <t>적군유닛_도둑</t>
-  </si>
-  <si>
-    <t>적군유닛_불량배</t>
-  </si>
-  <si>
-    <t>적군유닛_해적</t>
   </si>
   <si>
     <t>Ground;Water_Shallow</t>
@@ -1021,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1044,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1061,7 +1073,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1072,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1089,13 +1101,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1103,13 +1115,16 @@
         <v>1000.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1117,13 +1132,16 @@
         <v>1010.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -1131,13 +1149,16 @@
         <v>1020.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -1145,13 +1166,16 @@
         <v>1030.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1159,13 +1183,13 @@
         <v>10000.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1195,15 +1219,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1220,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1234,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1248,7 +1272,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -1262,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1276,7 +1300,7 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1314,7 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -1304,7 +1328,7 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1312,13 +1336,13 @@
         <v>1000.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6">
         <v>0.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1326,13 +1350,13 @@
         <v>1010.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6">
         <v>0.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1340,13 +1364,13 @@
         <v>1020.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>0.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1354,13 +1378,13 @@
         <v>1030.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6">
         <v>0.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1368,13 +1392,13 @@
         <v>10000.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>0.0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1404,12 +1428,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1421,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1432,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1443,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1454,7 +1478,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1465,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1476,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1487,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1495,10 +1519,10 @@
         <v>1000.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1506,10 +1530,10 @@
         <v>1010.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -1517,10 +1541,10 @@
         <v>1020.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -1528,10 +1552,10 @@
         <v>1030.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -1539,10 +1563,10 @@
         <v>10000.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1571,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1588,7 +1612,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5">
         <v>2.0</v>
@@ -1600,7 +1624,7 @@
         <v>31.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5">
         <v>32.0</v>
@@ -1612,7 +1636,7 @@
         <v>41.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5">
         <v>42.0</v>
@@ -1657,7 +1681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -1708,7 +1732,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1727,7 +1751,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1">
         <v>60.0</v>
@@ -1765,7 +1789,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1">
         <v>30.0</v>
@@ -1803,7 +1827,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1">
         <v>65.0</v>
@@ -1841,7 +1865,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>70.0</v>
@@ -1879,7 +1903,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1">
         <v>80.0</v>

--- a/fe_client/Assets/GameData/sheet_unit.xlsx
+++ b/fe_client/Assets/GameData/sheet_unit.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="class_status_max" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="class_attribute" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="class_asset" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="class_localization" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="class_change" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="unit_status_levelup" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="class_status_max" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="class_attribute" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="class_terrain" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="class_asset" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="class_localization" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="class_change" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="unit_status_levelup" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="unit_localization" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
   <si>
     <t>KIND</t>
   </si>
@@ -81,13 +83,19 @@
     <t>UNIT</t>
   </si>
   <si>
-    <t>PATH</t>
+    <t>MOUNT</t>
+  </si>
+  <si>
+    <t>TERRAIN</t>
+  </si>
+  <si>
+    <t>TERRAIN_MOUNTED</t>
   </si>
   <si>
     <t>WEAPON</t>
   </si>
   <si>
-    <t>#  UNIT (유닛 속성), PATH (이동 속성)</t>
+    <t>#  UNIT (유닛 속성), TERRAIN (이동 속성), TERRAIN(탑승시 이동속성)</t>
   </si>
   <si>
     <t xml:space="preserve"># </t>
@@ -96,19 +104,19 @@
     <t>Category:  EnumWeapon:          Sword = 1, Axe = 2, Spear = 3, MartailArts = 4, Bow = 5, Wand = 6, Grimoire = 7, Dagger = 8</t>
   </si>
   <si>
-    <t>Infantry;Male</t>
-  </si>
-  <si>
-    <t>Ground</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
   </si>
   <si>
     <t>Sword</t>
   </si>
   <si>
-    <t>Cavalry;Male</t>
-  </si>
-  <si>
-    <t>Infantry;Female</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Wand</t>
@@ -117,7 +125,7 @@
     <t>Sword;Spear</t>
   </si>
   <si>
-    <t>Infantry;HeavyArmor;Male</t>
+    <t>Male;Armor</t>
   </si>
   <si>
     <t>Spear</t>
@@ -141,19 +149,67 @@
     <t>적군유닛_해적</t>
   </si>
   <si>
-    <t>Infantry</t>
-  </si>
-  <si>
-    <t>Ground;Water_Shallow</t>
-  </si>
-  <si>
     <t>NPC_보호대상_배</t>
   </si>
   <si>
     <t>Structure</t>
   </si>
   <si>
-    <t>Water</t>
+    <t>GROUND</t>
+  </si>
+  <si>
+    <t>FOREST</t>
+  </si>
+  <si>
+    <t>DIRT</t>
+  </si>
+  <si>
+    <t>CLIMB</t>
+  </si>
+  <si>
+    <t>INDOOR</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WATER_SHALLOW</t>
+  </si>
+  <si>
+    <t>FLYER_ONLY</t>
+  </si>
+  <si>
+    <t># MOUNT : 승마 여부</t>
+  </si>
+  <si>
+    <t>보병</t>
+  </si>
+  <si>
+    <t>경보병</t>
+  </si>
+  <si>
+    <t>도둑</t>
+  </si>
+  <si>
+    <t>사제</t>
+  </si>
+  <si>
+    <t>기사</t>
+  </si>
+  <si>
+    <t>중갑</t>
+  </si>
+  <si>
+    <t>기병</t>
+  </si>
+  <si>
+    <t>경기병</t>
+  </si>
+  <si>
+    <t>비병</t>
+  </si>
+  <si>
+    <t>배</t>
   </si>
   <si>
     <t>UNIT_ID</t>
@@ -250,6 +306,42 @@
   </si>
   <si>
     <t>아군_프로디</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>#  localization_unit</t>
+  </si>
+  <si>
+    <t>localization_unit/1_name</t>
+  </si>
+  <si>
+    <t>localization_unit/1_desc</t>
+  </si>
+  <si>
+    <t>localization_unit/2_name</t>
+  </si>
+  <si>
+    <t>localization_unit/2_desc</t>
+  </si>
+  <si>
+    <t>localization_unit/3_name</t>
+  </si>
+  <si>
+    <t>localization_unit/3_desc</t>
+  </si>
+  <si>
+    <t>localization_unit/4_name</t>
+  </si>
+  <si>
+    <t>localization_unit/4_desc</t>
+  </si>
+  <si>
+    <t>localization_unit/5_name</t>
+  </si>
+  <si>
+    <t>localization_unit/5_desc</t>
   </si>
 </sst>
 </file>
@@ -354,6 +446,18 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,7 +1022,9 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="24.75"/>
     <col customWidth="1" min="3" max="3" width="20.13"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="4" max="4" width="18.63"/>
+    <col customWidth="1" min="5" max="5" width="31.75"/>
+    <col customWidth="1" min="6" max="6" width="17.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,25 +1043,32 @@
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -990,6 +1103,8 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -999,13 +1114,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1016,13 +1137,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1033,13 +1160,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1050,13 +1183,19 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
+      <c r="E7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1067,13 +1206,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
+      <c r="E8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1084,13 +1229,19 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1101,13 +1252,19 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1115,16 +1272,22 @@
         <v>1000.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1132,16 +1295,22 @@
         <v>1010.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1149,16 +1318,22 @@
         <v>1020.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1166,16 +1341,22 @@
         <v>1030.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1370,13 @@
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1198,6 +1385,417 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="5" max="5" width="16.13"/>
+    <col customWidth="1" min="10" max="10" width="17.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1219,15 +1817,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1244,7 +1842,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1258,7 +1856,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1272,7 +1870,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1286,7 +1884,7 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1300,7 +1898,7 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1314,7 +1912,7 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1328,7 +1926,7 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1336,13 +1934,13 @@
         <v>1000.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>0.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1350,13 +1948,13 @@
         <v>1010.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6">
         <v>0.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1364,13 +1962,13 @@
         <v>1020.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
         <v>0.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1378,13 +1976,13 @@
         <v>1030.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6">
         <v>0.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1398,7 +1996,7 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +2004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1428,12 +2026,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1445,7 +2043,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1456,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1467,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1478,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +2087,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -1500,7 +2098,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1511,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1519,10 +2117,10 @@
         <v>1000.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -1530,10 +2128,10 @@
         <v>1010.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -1541,10 +2139,10 @@
         <v>1020.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1552,10 +2150,10 @@
         <v>1030.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1566,7 +2164,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1595,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1612,7 +2210,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5">
         <v>2.0</v>
@@ -1624,7 +2222,7 @@
         <v>31.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5">
         <v>32.0</v>
@@ -1636,7 +2234,7 @@
         <v>41.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5">
         <v>42.0</v>
@@ -1666,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1681,7 +2279,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -1732,7 +2330,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1751,7 +2349,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>60.0</v>
@@ -1789,7 +2387,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>30.0</v>
@@ -1827,7 +2425,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1">
         <v>65.0</v>
@@ -1865,7 +2463,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1">
         <v>70.0</v>
@@ -1903,7 +2501,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1">
         <v>80.0</v>
@@ -1934,6 +2532,115 @@
       </c>
       <c r="L7" s="1">
         <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="24.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/fe_client/Assets/GameData/sheet_unit.xlsx
+++ b/fe_client/Assets/GameData/sheet_unit.xlsx
@@ -56,7 +56,7 @@
     <t>MOVEMENT</t>
   </si>
   <si>
-    <t># 클래스 별 유닛 스탯 상한치</t>
+    <t># TODO: 레벨별 스탯 min/max로 바꿀 예정.</t>
   </si>
   <si>
     <t>로드</t>
@@ -95,7 +95,7 @@
     <t>WEAPON</t>
   </si>
   <si>
-    <t>#  UNIT (유닛 속성), TERRAIN (이동 속성), TERRAIN(탑승시 이동속성)</t>
+    <t>#  UNIT (유닛 속성), MOUNT(탑승시 속성, Cavalry[기마], Flyer[비병]), TERRAIN (이동속성 KIND), TERRAIN(탑승시 이동속성 KIND)</t>
   </si>
   <si>
     <t xml:space="preserve"># </t>
@@ -221,13 +221,13 @@
     <t>#  UNIT에 따라서 ASSET이 분리, (0은 기본값)</t>
   </si>
   <si>
-    <t>demo/unit_alliance</t>
-  </si>
-  <si>
-    <t>demo/unit_enemy</t>
-  </si>
-  <si>
-    <t>demo/unit_enemy_thief</t>
+    <t>worldobject/unit/alliance</t>
+  </si>
+  <si>
+    <t>worldobject/unit/enemy</t>
+  </si>
+  <si>
+    <t>worldobject/unit/enemy_thief</t>
   </si>
   <si>
     <t>NAME</t>
@@ -1021,8 +1021,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="3" width="20.13"/>
-    <col customWidth="1" min="4" max="4" width="18.63"/>
+    <col customWidth="1" min="3" max="3" width="25.13"/>
+    <col customWidth="1" min="4" max="4" width="23.75"/>
     <col customWidth="1" min="5" max="5" width="31.75"/>
     <col customWidth="1" min="6" max="6" width="17.63"/>
   </cols>
@@ -1841,7 +1841,7 @@
       <c r="C3" s="6">
         <v>0.0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="C4" s="6">
         <v>0.0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="C5" s="6">
         <v>0.0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="C6" s="6">
         <v>0.0</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="C7" s="6">
         <v>0.0</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="C8" s="6">
         <v>0.0</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="C9" s="6">
         <v>0.0</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       <c r="C10" s="6">
         <v>0.0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       <c r="C11" s="6">
         <v>0.0</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       <c r="C12" s="7">
         <v>0.0</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="C13" s="6">
         <v>0.0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="C14" s="7">
         <v>0.0</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
